--- a/src/tests/beautiful_uploader_test/client_profile.xlsx
+++ b/src/tests/beautiful_uploader_test/client_profile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Susan/Desktop/CSCC01/Team10/src/tests/beautiful_uploader_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Susan/Desktop/Team10/src/tests/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Client Profile" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="694">
   <si>
     <t xml:space="preserve">Immigration, Refugees and Citizenship Canada
 iCARE - Immigration Contribution Agreement Reporting Environment
@@ -137,7 +137,7 @@
     <t>Consent for Future Research/Consultation</t>
   </si>
   <si>
-    <t>[BUID:305939,RID:,ORP:4/5,DTS:2018-08-07 10:05:04][1] (Client) Unable to validate against database. / (Client) Impossible de valider dans la base de données.</t>
+    <t>2018-01-01</t>
   </si>
   <si>
     <t>FOSS/GCMS Client ID</t>
@@ -185,61 +185,1933 @@
     <t>English</t>
   </si>
   <si>
+    <t>12345679</t>
+  </si>
+  <si>
+    <t>1969-11-14</t>
+  </si>
+  <si>
+    <t>555-333-5555</t>
+  </si>
+  <si>
+    <t>ddd@ab.org</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>M4C5E3</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12345680</t>
+  </si>
+  <si>
+    <t>1977-06-15</t>
+  </si>
+  <si>
+    <t>222-777-2229</t>
+  </si>
+  <si>
+    <t>dda@ed.ca</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>SW - Southwest</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>M4C1B1</t>
+  </si>
+  <si>
     <t>Temporary Resident or Minister’s Permit Number</t>
   </si>
   <si>
-    <t>1990-06-23</t>
-  </si>
-  <si>
-    <t>416-123-1234</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>L8A6H1</t>
-  </si>
-  <si>
-    <t>French</t>
+    <t>12345681</t>
+  </si>
+  <si>
+    <t>1985-03-01</t>
+  </si>
+  <si>
+    <t>578-245-7777</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>Bathurst</t>
+  </si>
+  <si>
+    <t>Expressway</t>
+  </si>
+  <si>
+    <t>N - North</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>N0M1L0</t>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+  </si>
+  <si>
+    <t>12345682</t>
+  </si>
+  <si>
+    <t>1968-01-16</t>
+  </si>
+  <si>
+    <t>265-118-1203</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Showthurst</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>W - West</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>M3B3H9</t>
+  </si>
+  <si>
+    <t>Unknown/No preference</t>
+  </si>
+  <si>
+    <t>12345683</t>
+  </si>
+  <si>
+    <t>1976-05-30</t>
+  </si>
+  <si>
+    <t>214-285-1211</t>
+  </si>
+  <si>
+    <t>fort@eda.eu</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>Spadina</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>NE - Northeast</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>K1A0B1</t>
   </si>
   <si>
     <t>IMM5292, IMM5509, IMM1000 Number</t>
   </si>
   <si>
-    <t>562836282</t>
-  </si>
-  <si>
-    <t>1987-12-16</t>
-  </si>
-  <si>
-    <t>905-343-2563</t>
-  </si>
-  <si>
-    <t>hbob@gmail.com</t>
-  </si>
-  <si>
-    <t>1823</t>
-  </si>
-  <si>
-    <t>Candy</t>
+    <t>12345684</t>
+  </si>
+  <si>
+    <t>1980-10-11</t>
+  </si>
+  <si>
+    <t>227-999-3333</t>
+  </si>
+  <si>
+    <t>ggg@qqq.gov</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Way</t>
+  </si>
+  <si>
+    <t>L0R1P0</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>12345685</t>
+  </si>
+  <si>
+    <t>1983-06-07</t>
+  </si>
+  <si>
+    <t>147-789-4547</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Dundas</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>SE - Southeast</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>M4C1B5</t>
+  </si>
+  <si>
+    <t>12345686</t>
+  </si>
+  <si>
+    <t>1973-04-26</t>
+  </si>
+  <si>
+    <t>147-887-2257</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Heights</t>
+  </si>
+  <si>
+    <t>NW - Northwest</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>K6H5S7</t>
+  </si>
+  <si>
+    <t>12345687</t>
+  </si>
+  <si>
+    <t>1972-09-10</t>
+  </si>
+  <si>
+    <t>135-772-2223</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Pines</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>M2M1C8</t>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+  </si>
+  <si>
+    <t>12345688</t>
+  </si>
+  <si>
+    <t>1976-12-31</t>
+  </si>
+  <si>
+    <t>454-878-4752</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>K1J7N4</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>12345689</t>
+  </si>
+  <si>
+    <t>1972-02-20</t>
+  </si>
+  <si>
+    <t>214-763-4152</t>
+  </si>
+  <si>
+    <t>qet@nqa.xa</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Military trail</t>
+  </si>
+  <si>
+    <t>Terrasse</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>K2H6K1</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>12345690</t>
+  </si>
+  <si>
+    <t>1969-07-07</t>
+  </si>
+  <si>
+    <t>124-888-7982</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>Novice trail</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>K1M0T1</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>12345691</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>222-457-9999</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>Ama</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>M4T1X2</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>12345692</t>
+  </si>
+  <si>
+    <t>1980-09-06</t>
+  </si>
+  <si>
+    <t>206-578-1111</t>
+  </si>
+  <si>
+    <t>vmg@rt.ca</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>Mount</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>M5P3H4</t>
+  </si>
+  <si>
+    <t>2018-12-01</t>
+  </si>
+  <si>
+    <t>12345693</t>
+  </si>
+  <si>
+    <t>1979-06-09</t>
+  </si>
+  <si>
+    <t>694-206-9420</t>
+  </si>
+  <si>
+    <t>csa@fq.ls</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>See sharp</t>
+  </si>
+  <si>
+    <t>Platau</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>K2P0B9</t>
+  </si>
+  <si>
+    <t>12345694</t>
+  </si>
+  <si>
+    <t>1981-05-15</t>
+  </si>
+  <si>
+    <t>420-694-2069</t>
+  </si>
+  <si>
+    <t>gna@yell.aq</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>S - South</t>
+  </si>
+  <si>
+    <t>M4Y2E2</t>
+  </si>
+  <si>
+    <t>12345695</t>
+  </si>
+  <si>
+    <t>1978-08-23</t>
+  </si>
+  <si>
+    <t>222-777-9871</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Parade</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>L6M2V7</t>
+  </si>
+  <si>
+    <t>12345696</t>
+  </si>
+  <si>
+    <t>1982-01-30</t>
+  </si>
+  <si>
+    <t>222-773-9175</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>K2K1Y4</t>
+  </si>
+  <si>
+    <t>12345697</t>
+  </si>
+  <si>
+    <t>1977-11-03</t>
+  </si>
+  <si>
+    <t>464-464-4646</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>M5N2H9</t>
+  </si>
+  <si>
+    <t>12345698</t>
+  </si>
+  <si>
+    <t>1978-10-29</t>
+  </si>
+  <si>
+    <t>201-785-1217</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>M5S2R5</t>
+  </si>
+  <si>
+    <t>78974264</t>
+  </si>
+  <si>
+    <t>1999-01-20</t>
+  </si>
+  <si>
+    <t>123-257-7982</t>
+  </si>
+  <si>
+    <t>sav@hms.com</t>
+  </si>
+  <si>
+    <t>Moo</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>2018-05-01</t>
+  </si>
+  <si>
+    <t>65797968</t>
+  </si>
+  <si>
+    <t>1996-01-01</t>
+  </si>
+  <si>
+    <t>127-259-1465</t>
+  </si>
+  <si>
+    <t>fel@gma.ca</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>Woo</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>12448346</t>
+  </si>
+  <si>
+    <t>1946-12-05</t>
+  </si>
+  <si>
+    <t>123-725-6644</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Hoo</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27984154</t>
+  </si>
+  <si>
+    <t>1967-11-25</t>
+  </si>
+  <si>
+    <t>967-111-1111</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Foor</t>
+  </si>
+  <si>
+    <t>Pathway</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>23244656</t>
+  </si>
+  <si>
+    <t>1987-04-22</t>
+  </si>
+  <si>
+    <t>267-985-4678</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>Vive</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23259897</t>
+  </si>
+  <si>
+    <t>1965-05-01</t>
+  </si>
+  <si>
+    <t>200-236-7985</t>
+  </si>
+  <si>
+    <t>Aqv</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>13129494</t>
+  </si>
+  <si>
+    <t>1978-03-01</t>
+  </si>
+  <si>
+    <t>132-497-2557</t>
+  </si>
+  <si>
+    <t>Anch</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>13214846</t>
+  </si>
+  <si>
+    <t>1984-02-14</t>
+  </si>
+  <si>
+    <t>222-667-7986</t>
+  </si>
+  <si>
+    <t>poa@fqss.eq</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Kor</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>23244779</t>
+  </si>
+  <si>
+    <t>1991-05-01</t>
+  </si>
+  <si>
+    <t>475-214-5567</t>
+  </si>
+  <si>
+    <t>cmf@deeffg.qa</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Tac</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>23234467</t>
+  </si>
+  <si>
+    <t>1993-06-09</t>
+  </si>
+  <si>
+    <t>253-245-6458</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>Tic</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>999887411</t>
+  </si>
+  <si>
+    <t>1945-08-16</t>
+  </si>
+  <si>
+    <t>645-989-7466</t>
+  </si>
+  <si>
+    <t>Toe</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>415215145</t>
+  </si>
+  <si>
+    <t>1977-12-01</t>
+  </si>
+  <si>
+    <t>201-787-8197</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Moh</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>251512159</t>
+  </si>
+  <si>
+    <t>1967-11-01</t>
+  </si>
+  <si>
+    <t>230-798-2364</t>
+  </si>
+  <si>
+    <t>cesl@fmal.ca</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Fah</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>578451522</t>
+  </si>
+  <si>
+    <t>1997-03-03</t>
+  </si>
+  <si>
+    <t>125-798-2365</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>132121475</t>
+  </si>
+  <si>
+    <t>1995-02-02</t>
+  </si>
+  <si>
+    <t>123-457-987</t>
+  </si>
+  <si>
+    <t>srac@doa.pa</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>131328454</t>
+  </si>
+  <si>
+    <t>1993-05-03</t>
+  </si>
+  <si>
+    <t>521-667-6677</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Lo</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>323487123</t>
+  </si>
+  <si>
+    <t>1994-08-12</t>
+  </si>
+  <si>
+    <t>625-444-6978</t>
+  </si>
+  <si>
+    <t>cap@dpe.ca</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>313232788</t>
+  </si>
+  <si>
+    <t>1997-10-01</t>
+  </si>
+  <si>
+    <t>646-798-9823</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>Avqa</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>23231132</t>
+  </si>
+  <si>
+    <t>1996-06-03</t>
+  </si>
+  <si>
+    <t>234-555-7984</t>
+  </si>
+  <si>
+    <t>tkas@mas.qa</t>
+  </si>
+  <si>
+    <t>Agel</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>11334444</t>
+  </si>
+  <si>
+    <t>1998-03-12</t>
+  </si>
+  <si>
+    <t>234-987-4466</t>
+  </si>
+  <si>
+    <t>Apqle</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>13246479</t>
+  </si>
+  <si>
+    <t>1993-05-04</t>
+  </si>
+  <si>
+    <t>129-465-2146</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A6F4F9</t>
+  </si>
+  <si>
+    <t>32645242</t>
+  </si>
+  <si>
+    <t>597-892-2144</t>
+  </si>
+  <si>
+    <t>Mrac</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>A1EQ6G</t>
+  </si>
+  <si>
+    <t>65641452</t>
+  </si>
+  <si>
+    <t>1993-03-02</t>
+  </si>
+  <si>
+    <t>236-264-5577</t>
+  </si>
+  <si>
+    <t>Sack</t>
+  </si>
+  <si>
+    <t>A2J9A1</t>
+  </si>
+  <si>
+    <t>65679952</t>
+  </si>
+  <si>
+    <t>1987-05-03</t>
+  </si>
+  <si>
+    <t>225-667-4646</t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>L6Q9F4</t>
+  </si>
+  <si>
+    <t>23231318</t>
+  </si>
+  <si>
+    <t>1978-02-01</t>
+  </si>
+  <si>
+    <t>982-982-2277</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>B6A8E4</t>
+  </si>
+  <si>
+    <t>45215287</t>
+  </si>
+  <si>
+    <t>1967-05-04</t>
+  </si>
+  <si>
+    <t>928-229-2764</t>
+  </si>
+  <si>
+    <t>fmq@ptrfor.ca</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>Zap</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>B6E9J4</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>65452121</t>
+  </si>
+  <si>
+    <t>1966-06-04</t>
+  </si>
+  <si>
+    <t>292-791-2347</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Nap</t>
+  </si>
+  <si>
+    <t>G5N9F4</t>
+  </si>
+  <si>
+    <t>15211776</t>
+  </si>
+  <si>
+    <t>1997-09-02</t>
+  </si>
+  <si>
+    <t>201-798-8811</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Lap</t>
+  </si>
+  <si>
+    <t>N6D8A4</t>
+  </si>
+  <si>
+    <t>12112177</t>
+  </si>
+  <si>
+    <t>1998-07-09</t>
+  </si>
+  <si>
+    <t>232-147-7982</t>
+  </si>
+  <si>
+    <t>fa2@bga.ca</t>
+  </si>
+  <si>
+    <t>Wap</t>
+  </si>
+  <si>
+    <t>N1F3W8</t>
+  </si>
+  <si>
+    <t>125556677</t>
+  </si>
+  <si>
+    <t>2000-02-05</t>
+  </si>
+  <si>
+    <t>284-267-9764</t>
+  </si>
+  <si>
+    <t>flgm@pwkr.rac</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>F6J4J9</t>
+  </si>
+  <si>
+    <t>78458452</t>
+  </si>
+  <si>
+    <t>124-874-2477</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Laylor</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>H1Q6F7</t>
+  </si>
+  <si>
+    <t>852147456</t>
+  </si>
+  <si>
+    <t>1994-07-23</t>
+  </si>
+  <si>
+    <t>132-795-1392</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>T7N6Q9</t>
+  </si>
+  <si>
+    <t>521452584</t>
+  </si>
+  <si>
+    <t>1967-05-27</t>
+  </si>
+  <si>
+    <t>254-526-7891</t>
+  </si>
+  <si>
+    <t>fas@apq.qa</t>
+  </si>
+  <si>
+    <t>Choo</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>H1A3N1</t>
+  </si>
+  <si>
+    <t>145215214</t>
+  </si>
+  <si>
+    <t>1986-06-28</t>
+  </si>
+  <si>
+    <t>254-876-2042</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Spotty</t>
+  </si>
+  <si>
+    <t>G4T9H9</t>
+  </si>
+  <si>
+    <t>6656999874</t>
+  </si>
+  <si>
+    <t>1977-09-11</t>
+  </si>
+  <si>
+    <t>259-658-7981</t>
+  </si>
+  <si>
+    <t>Spcok</t>
+  </si>
+  <si>
+    <t>I4K6Q1</t>
+  </si>
+  <si>
+    <t>12124679</t>
+  </si>
+  <si>
+    <t>1962-04-14</t>
+  </si>
+  <si>
+    <t>179-567-2465</t>
+  </si>
+  <si>
+    <t>gasf@avsa.hp</t>
+  </si>
+  <si>
+    <t>eitach</t>
+  </si>
+  <si>
+    <t>N3G5F7</t>
+  </si>
+  <si>
+    <t>5484637</t>
+  </si>
+  <si>
+    <t>1988-03-18</t>
+  </si>
+  <si>
+    <t>257-798-2546</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Jork</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>J4Q6E1</t>
+  </si>
+  <si>
+    <t>21467981</t>
+  </si>
+  <si>
+    <t>1984-04-12</t>
+  </si>
+  <si>
+    <t>256-981-7846</t>
+  </si>
+  <si>
+    <t>koa@goq.ls</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>E8N6J6</t>
+  </si>
+  <si>
+    <t>12476043</t>
+  </si>
+  <si>
+    <t>1996-10-15</t>
+  </si>
+  <si>
+    <t>579-892-2146</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Narde</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>D8E1N4</t>
+  </si>
+  <si>
+    <t>13257164</t>
+  </si>
+  <si>
+    <t>1998-02-01</t>
+  </si>
+  <si>
+    <t>266-257-8746</t>
+  </si>
+  <si>
+    <t>foq@pgo.so</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>H9O2H9</t>
+  </si>
+  <si>
+    <t>25798546</t>
+  </si>
+  <si>
+    <t>1988-05-02</t>
+  </si>
+  <si>
+    <t>201-571-6821</t>
+  </si>
+  <si>
+    <t>Moen</t>
+  </si>
+  <si>
+    <t>T6O9U4</t>
+  </si>
+  <si>
+    <t>23465813</t>
+  </si>
+  <si>
+    <t>1965-03-02</t>
+  </si>
+  <si>
+    <t>475-987-2103</t>
+  </si>
+  <si>
+    <t>gg@aqo.qb</t>
+  </si>
+  <si>
+    <t>Balenc</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>M8I9N1</t>
+  </si>
+  <si>
+    <t>22554778</t>
+  </si>
+  <si>
+    <t>1943-02-01</t>
+  </si>
+  <si>
+    <t>201-846-6872</t>
+  </si>
+  <si>
+    <t>Stetus</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>U1E6G6</t>
+  </si>
+  <si>
+    <t>12154255</t>
+  </si>
+  <si>
+    <t>1967-06-08</t>
+  </si>
+  <si>
+    <t>239-982-2465</t>
+  </si>
+  <si>
+    <t>gna@pqf.pw</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>A4F9E3</t>
+  </si>
+  <si>
+    <t>62185652</t>
+  </si>
+  <si>
+    <t>1993-02-28</t>
+  </si>
+  <si>
+    <t>257-982-1324</t>
+  </si>
+  <si>
+    <t>testing@test.test</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>A6F9H9</t>
+  </si>
+  <si>
+    <t>52152152</t>
+  </si>
+  <si>
+    <t>1999-01-03</t>
+  </si>
+  <si>
+    <t>246-879-2125</t>
+  </si>
+  <si>
+    <t>field@field.field</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>Q9F5G1</t>
+  </si>
+  <si>
+    <t>89548593</t>
+  </si>
+  <si>
+    <t>1994-02-04</t>
+  </si>
+  <si>
+    <t>138-657-3145</t>
+  </si>
+  <si>
+    <t>one@two.three</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>Lindcrest</t>
   </si>
   <si>
     <t>Street</t>
   </si>
   <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>Yukon</t>
-  </si>
-  <si>
-    <t>U8I6DF</t>
-  </si>
-  <si>
-    <t>Unknown/No preference</t>
-  </si>
-  <si>
-    <t>783763927</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>H4A1B2</t>
+  </si>
+  <si>
+    <t>87895896</t>
+  </si>
+  <si>
+    <t>1988-06-15</t>
+  </si>
+  <si>
+    <t>213-846-9687</t>
+  </si>
+  <si>
+    <t>key@card.mail</t>
+  </si>
+  <si>
+    <t>6969</t>
+  </si>
+  <si>
+    <t>Elson</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>G7Y3E6</t>
+  </si>
+  <si>
+    <t>98659864</t>
+  </si>
+  <si>
+    <t>1977-04-13</t>
+  </si>
+  <si>
+    <t>654-874-2513</t>
+  </si>
+  <si>
+    <t>last@col.net</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>Murdham</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>G3E4H2</t>
+  </si>
+  <si>
+    <t>58625889</t>
+  </si>
+  <si>
+    <t>1983-07-12</t>
+  </si>
+  <si>
+    <t>312-564-798</t>
+  </si>
+  <si>
+    <t>email@domain.com</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>Lefty</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>Q2C5J3</t>
+  </si>
+  <si>
+    <t>78658685</t>
+  </si>
+  <si>
+    <t>1964-10-14</t>
+  </si>
+  <si>
+    <t>213-548-3512</t>
+  </si>
+  <si>
+    <t>final@first.middle</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>K4U4G6</t>
+  </si>
+  <si>
+    <t>65428636</t>
+  </si>
+  <si>
+    <t>1988-12-27</t>
+  </si>
+  <si>
+    <t>174-412-6847</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>W7H6N2</t>
+  </si>
+  <si>
+    <t>78955236</t>
+  </si>
+  <si>
+    <t>1979-07-13</t>
+  </si>
+  <si>
+    <t>621-872-9374</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>R6W1H4</t>
+  </si>
+  <si>
+    <t>89768752</t>
+  </si>
+  <si>
+    <t>1993-02-14</t>
+  </si>
+  <si>
+    <t>214-967-3524</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>K5U6J6</t>
+  </si>
+  <si>
+    <t>74147895</t>
+  </si>
+  <si>
+    <t>1984-06-05</t>
+  </si>
+  <si>
+    <t>968-241-6872</t>
+  </si>
+  <si>
+    <t>E6G7Q1</t>
+  </si>
+  <si>
+    <t>78985285</t>
+  </si>
+  <si>
+    <t>1986-03-04</t>
+  </si>
+  <si>
+    <t>243-579-5214</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>K4H7U9</t>
+  </si>
+  <si>
+    <t>75545855</t>
+  </si>
+  <si>
+    <t>1990-03-07</t>
+  </si>
+  <si>
+    <t>127-352-6897</t>
+  </si>
+  <si>
+    <t>N2J6G8</t>
+  </si>
+  <si>
+    <t>46824285</t>
+  </si>
+  <si>
+    <t>1980-04-14</t>
+  </si>
+  <si>
+    <t>212-984-9758</t>
+  </si>
+  <si>
+    <t>H5N9R4</t>
+  </si>
+  <si>
+    <t>25325637</t>
+  </si>
+  <si>
+    <t>1970-06-17</t>
+  </si>
+  <si>
+    <t>216-576-4759</t>
+  </si>
+  <si>
+    <t>N6E1E5</t>
+  </si>
+  <si>
+    <t>21563215</t>
+  </si>
+  <si>
+    <t>1996-03-01</t>
+  </si>
+  <si>
+    <t>254-981-8521</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>H6R2B3</t>
+  </si>
+  <si>
+    <t>48521825</t>
+  </si>
+  <si>
+    <t>1996-05-01</t>
+  </si>
+  <si>
+    <t>427-625-5214</t>
+  </si>
+  <si>
+    <t>ogw@mga.ca</t>
+  </si>
+  <si>
+    <t>Ellesmor</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>T9B1H5</t>
+  </si>
+  <si>
+    <t>48589654</t>
+  </si>
+  <si>
+    <t>1987-03-30</t>
+  </si>
+  <si>
+    <t>415-878-5145</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>F2E6H9</t>
+  </si>
+  <si>
+    <t>54528525</t>
+  </si>
+  <si>
+    <t>1982-06-17</t>
+  </si>
+  <si>
+    <t>452-758-7858</t>
+  </si>
+  <si>
+    <t>gnoas@nga.ca</t>
+  </si>
+  <si>
+    <t>Nightside</t>
+  </si>
+  <si>
+    <t>H4N2A3</t>
+  </si>
+  <si>
+    <t>19548545</t>
+  </si>
+  <si>
+    <t>1986-05-27</t>
+  </si>
+  <si>
+    <t>452-876-9524</t>
+  </si>
+  <si>
+    <t>Baby Trail</t>
+  </si>
+  <si>
+    <t>T4H6J9</t>
+  </si>
+  <si>
+    <t>85887425</t>
+  </si>
+  <si>
+    <t>1991-02-03</t>
+  </si>
+  <si>
+    <t>527-862-9861</t>
+  </si>
+  <si>
+    <t>Wod Mon Avenue</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>G2A2E4</t>
+  </si>
+  <si>
+    <t>98528741</t>
+  </si>
+  <si>
+    <t>1998-12-15</t>
+  </si>
+  <si>
+    <t>552-855-7521</t>
+  </si>
+  <si>
+    <t>fgsna@kpgisa.po</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Jaqin</t>
+  </si>
+  <si>
+    <t>H5F6E9</t>
+  </si>
+  <si>
+    <t>62148745</t>
+  </si>
+  <si>
+    <t>1970-04-11</t>
+  </si>
+  <si>
+    <t>252-986-4552</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>Merp</t>
+  </si>
+  <si>
+    <t>R9G2J2</t>
+  </si>
+  <si>
+    <t>52147756</t>
+  </si>
+  <si>
+    <t>1989-03-14</t>
+  </si>
+  <si>
+    <t>245-986-5745</t>
+  </si>
+  <si>
+    <t>flagj@nav.aq</t>
+  </si>
+  <si>
+    <t>Flurmfle</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>H1B2G5</t>
+  </si>
+  <si>
+    <t>52685212</t>
+  </si>
+  <si>
+    <t>1962-05-09</t>
+  </si>
+  <si>
+    <t>548-121-6267</t>
+  </si>
+  <si>
+    <t>Shoe</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>H7E5J6</t>
+  </si>
+  <si>
+    <t>56258552</t>
+  </si>
+  <si>
+    <t>1988-03-02</t>
+  </si>
+  <si>
+    <t>452-996-9820</t>
+  </si>
+  <si>
+    <t>Shine</t>
+  </si>
+  <si>
+    <t>S1G2E3</t>
+  </si>
+  <si>
+    <t>85265852</t>
+  </si>
+  <si>
+    <t>1984-09-05</t>
+  </si>
+  <si>
+    <t>546-548-5852</t>
+  </si>
+  <si>
+    <t>gnsj@pt.ca</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Moon Crescent</t>
+  </si>
+  <si>
+    <t>H4H7R9</t>
+  </si>
+  <si>
+    <t>86385232</t>
+  </si>
+  <si>
+    <t>1987-03-02</t>
+  </si>
+  <si>
+    <t>428-953-5857</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Jabre</t>
+  </si>
+  <si>
+    <t>H2R2R6</t>
+  </si>
+  <si>
+    <t>68624167</t>
+  </si>
+  <si>
+    <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>215-567-9864</t>
+  </si>
+  <si>
+    <t>gnigos@par.com</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>H7R8J9</t>
+  </si>
+  <si>
+    <t>54885217</t>
+  </si>
+  <si>
+    <t>1997-06-15</t>
+  </si>
+  <si>
+    <t>525-861-8527</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>J9Q9B7</t>
   </si>
 </sst>
 </file>
@@ -661,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2503"/>
+  <dimension ref="A1:Q2497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,7 +2687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -868,13 +2740,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>52</v>
@@ -883,1822 +2757,4872 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="H12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="H14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="H21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
+      <c r="H23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
+      <c r="H24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="H27" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
+      <c r="H28" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
+      <c r="H29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
+      <c r="H31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
+      <c r="H34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="H35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
+      <c r="A36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="H36" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
+      <c r="A38" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
+      <c r="H38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
+      <c r="H40" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
+      <c r="H42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
+      <c r="H44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
+      <c r="H45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="H46" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
+      <c r="A47" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
+      <c r="H47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
+      <c r="H49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
+      <c r="H51" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
+      <c r="A52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
+      <c r="H52" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="H55" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
+      <c r="A56" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
+      <c r="H56" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
+      <c r="H58" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
+      <c r="A59" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
+      <c r="H59" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="H61" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
+      <c r="A63" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
+      <c r="H63" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
+      <c r="H65" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q65" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
+      <c r="A67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
+      <c r="H67" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="6"/>
+      <c r="A84" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="6"/>
+      <c r="H88" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="6"/>
+      <c r="H89" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="6"/>
+      <c r="H91" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
+      <c r="H93" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="6"/>
+      <c r="A94" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="6"/>
+      <c r="H94" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="6"/>
+      <c r="H96" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
+      <c r="H98" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M98" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
@@ -48281,120 +53205,6 @@
       <c r="P2497" s="6"/>
       <c r="Q2497" s="6"/>
     </row>
-    <row r="2498" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2498" s="7"/>
-      <c r="B2498" s="6"/>
-      <c r="C2498" s="7"/>
-      <c r="D2498" s="7"/>
-      <c r="E2498" s="7"/>
-      <c r="F2498" s="6"/>
-      <c r="G2498" s="7"/>
-      <c r="H2498" s="7"/>
-      <c r="I2498" s="7"/>
-      <c r="J2498" s="6"/>
-      <c r="K2498" s="6"/>
-      <c r="L2498" s="7"/>
-      <c r="M2498" s="7"/>
-      <c r="N2498" s="6"/>
-      <c r="O2498" s="7"/>
-      <c r="P2498" s="6"/>
-      <c r="Q2498" s="6"/>
-    </row>
-    <row r="2499" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2499" s="7"/>
-      <c r="B2499" s="6"/>
-      <c r="C2499" s="7"/>
-      <c r="D2499" s="7"/>
-      <c r="E2499" s="7"/>
-      <c r="F2499" s="6"/>
-      <c r="G2499" s="7"/>
-      <c r="H2499" s="7"/>
-      <c r="I2499" s="7"/>
-      <c r="J2499" s="6"/>
-      <c r="K2499" s="6"/>
-      <c r="L2499" s="7"/>
-      <c r="M2499" s="7"/>
-      <c r="N2499" s="6"/>
-      <c r="O2499" s="7"/>
-      <c r="P2499" s="6"/>
-      <c r="Q2499" s="6"/>
-    </row>
-    <row r="2500" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2500" s="7"/>
-      <c r="B2500" s="6"/>
-      <c r="C2500" s="7"/>
-      <c r="D2500" s="7"/>
-      <c r="E2500" s="7"/>
-      <c r="F2500" s="6"/>
-      <c r="G2500" s="7"/>
-      <c r="H2500" s="7"/>
-      <c r="I2500" s="7"/>
-      <c r="J2500" s="6"/>
-      <c r="K2500" s="6"/>
-      <c r="L2500" s="7"/>
-      <c r="M2500" s="7"/>
-      <c r="N2500" s="6"/>
-      <c r="O2500" s="7"/>
-      <c r="P2500" s="6"/>
-      <c r="Q2500" s="6"/>
-    </row>
-    <row r="2501" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2501" s="7"/>
-      <c r="B2501" s="6"/>
-      <c r="C2501" s="7"/>
-      <c r="D2501" s="7"/>
-      <c r="E2501" s="7"/>
-      <c r="F2501" s="6"/>
-      <c r="G2501" s="7"/>
-      <c r="H2501" s="7"/>
-      <c r="I2501" s="7"/>
-      <c r="J2501" s="6"/>
-      <c r="K2501" s="6"/>
-      <c r="L2501" s="7"/>
-      <c r="M2501" s="7"/>
-      <c r="N2501" s="6"/>
-      <c r="O2501" s="7"/>
-      <c r="P2501" s="6"/>
-      <c r="Q2501" s="6"/>
-    </row>
-    <row r="2502" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2502" s="7"/>
-      <c r="B2502" s="6"/>
-      <c r="C2502" s="7"/>
-      <c r="D2502" s="7"/>
-      <c r="E2502" s="7"/>
-      <c r="F2502" s="6"/>
-      <c r="G2502" s="7"/>
-      <c r="H2502" s="7"/>
-      <c r="I2502" s="7"/>
-      <c r="J2502" s="6"/>
-      <c r="K2502" s="6"/>
-      <c r="L2502" s="7"/>
-      <c r="M2502" s="7"/>
-      <c r="N2502" s="6"/>
-      <c r="O2502" s="7"/>
-      <c r="P2502" s="6"/>
-      <c r="Q2502" s="6"/>
-    </row>
-    <row r="2503" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2503" s="7"/>
-      <c r="B2503" s="6"/>
-      <c r="C2503" s="7"/>
-      <c r="D2503" s="7"/>
-      <c r="E2503" s="7"/>
-      <c r="F2503" s="6"/>
-      <c r="G2503" s="7"/>
-      <c r="H2503" s="7"/>
-      <c r="I2503" s="7"/>
-      <c r="J2503" s="6"/>
-      <c r="K2503" s="6"/>
-      <c r="L2503" s="7"/>
-      <c r="M2503" s="7"/>
-      <c r="N2503" s="6"/>
-      <c r="O2503" s="7"/>
-      <c r="P2503" s="6"/>
-      <c r="Q2503" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
@@ -48404,53 +53214,68 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId6"/>
+    <hyperlink ref="G18" r:id="rId7"/>
+    <hyperlink ref="G19" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="G25" r:id="rId10"/>
+    <hyperlink ref="G26" r:id="rId11"/>
+    <hyperlink ref="G32" r:id="rId12"/>
+    <hyperlink ref="G33" r:id="rId13"/>
+    <hyperlink ref="G37" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G41" r:id="rId16"/>
+    <hyperlink ref="G43" r:id="rId17"/>
+    <hyperlink ref="G50" r:id="rId18"/>
+    <hyperlink ref="G53" r:id="rId19"/>
+    <hyperlink ref="G54" r:id="rId20"/>
+    <hyperlink ref="G57" r:id="rId21"/>
+    <hyperlink ref="G60" r:id="rId22"/>
+    <hyperlink ref="G62" r:id="rId23"/>
+    <hyperlink ref="G64" r:id="rId24"/>
+    <hyperlink ref="G66" r:id="rId25"/>
+    <hyperlink ref="G68" r:id="rId26"/>
+    <hyperlink ref="G69" r:id="rId27"/>
+    <hyperlink ref="G70" r:id="rId28"/>
+    <hyperlink ref="G71" r:id="rId29"/>
+    <hyperlink ref="G72" r:id="rId30"/>
+    <hyperlink ref="G73" r:id="rId31"/>
+    <hyperlink ref="G74" r:id="rId32"/>
+    <hyperlink ref="G75" r:id="rId33"/>
+    <hyperlink ref="G76" r:id="rId34"/>
+    <hyperlink ref="G77" r:id="rId35"/>
+    <hyperlink ref="G78" r:id="rId36"/>
+    <hyperlink ref="G79" r:id="rId37"/>
+    <hyperlink ref="G80" r:id="rId38"/>
+    <hyperlink ref="G81" r:id="rId39"/>
+    <hyperlink ref="G82" r:id="rId40"/>
+    <hyperlink ref="G83" r:id="rId41"/>
+    <hyperlink ref="G92" r:id="rId42"/>
+    <hyperlink ref="G85" r:id="rId43"/>
+    <hyperlink ref="G90" r:id="rId44"/>
+    <hyperlink ref="G87" r:id="rId45"/>
+    <hyperlink ref="G95" r:id="rId46"/>
+    <hyperlink ref="G97" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]Options Sheet'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Options Sheet'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P4:P42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Options Sheet'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N4:N35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Options Sheet'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K4:K36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Options Sheet'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F43 Q4:Q34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]Options Sheet'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B31</xm:sqref>
+          <xm:sqref>J4:J34 P4:P41 B4:B30 Q4:Q33 F4:F42 K4:K35 N4:N34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]LOV!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>Q35:Q2503 B32:B2503 F44:F2503 J36:J2503 K37:K2503 N36:N2503 P43:P2503</xm:sqref>
+          <xm:sqref>P69:Q2497 N35:N2497 K36:K2497 J35:J2497 F43:F2497 B31:B2497 P42:P68 Q34:Q68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
